--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Vcan-Cd44.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H2">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J2">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>198.374370664061</v>
+        <v>218.5681036529796</v>
       </c>
       <c r="R2">
-        <v>1785.36933597655</v>
+        <v>1967.112932876816</v>
       </c>
       <c r="S2">
-        <v>0.0008746542281164043</v>
+        <v>0.002494654800888917</v>
       </c>
       <c r="T2">
-        <v>0.0008746542281164046</v>
+        <v>0.002494654800888917</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H3">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J3">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>820.7348405600887</v>
+        <v>1051.675107104455</v>
       </c>
       <c r="R3">
-        <v>7386.613565040799</v>
+        <v>9465.075963940095</v>
       </c>
       <c r="S3">
-        <v>0.003618709393029355</v>
+        <v>0.01200342735772155</v>
       </c>
       <c r="T3">
-        <v>0.003618709393029355</v>
+        <v>0.01200342735772155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H4">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J4">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>2165.889433820999</v>
+        <v>1898.170397594604</v>
       </c>
       <c r="R4">
-        <v>19493.004904389</v>
+        <v>17083.53357835144</v>
       </c>
       <c r="S4">
-        <v>0.00954964265082549</v>
+        <v>0.02166500882847391</v>
       </c>
       <c r="T4">
-        <v>0.009549642650825491</v>
+        <v>0.02166500882847391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H5">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J5">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>581.1349296173388</v>
+        <v>467.5424642875092</v>
       </c>
       <c r="R5">
-        <v>5230.214366556049</v>
+        <v>4207.882178587583</v>
       </c>
       <c r="S5">
-        <v>0.002562287263190397</v>
+        <v>0.00533635527627624</v>
       </c>
       <c r="T5">
-        <v>0.002562287263190397</v>
+        <v>0.005336355276276241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.877883333333331</v>
+        <v>11.37596266666667</v>
       </c>
       <c r="H6">
-        <v>26.63365</v>
+        <v>34.127888</v>
       </c>
       <c r="I6">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695051</v>
       </c>
       <c r="J6">
-        <v>0.02762748111141947</v>
+        <v>0.05604480707695052</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>2499.867322987872</v>
+        <v>1274.385509707348</v>
       </c>
       <c r="R6">
-        <v>22498.80590689085</v>
+        <v>11469.46958736613</v>
       </c>
       <c r="S6">
-        <v>0.01102218757625783</v>
+        <v>0.0145453608135899</v>
       </c>
       <c r="T6">
-        <v>0.01102218757625783</v>
+        <v>0.0145453608135899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>466.172821</v>
       </c>
       <c r="I7">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J7">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>3472.176738320321</v>
+        <v>2985.549807844245</v>
       </c>
       <c r="R7">
-        <v>31249.59064488289</v>
+        <v>26869.9482705982</v>
       </c>
       <c r="S7">
-        <v>0.01530920579494744</v>
+        <v>0.0340759517832331</v>
       </c>
       <c r="T7">
-        <v>0.01530920579494744</v>
+        <v>0.0340759517832331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>466.172821</v>
       </c>
       <c r="I8">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J8">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
         <v>14365.44656541187</v>
@@ -948,10 +948,10 @@
         <v>129289.0190887068</v>
       </c>
       <c r="S8">
-        <v>0.06333882010643274</v>
+        <v>0.1639618482402905</v>
       </c>
       <c r="T8">
-        <v>0.06333882010643274</v>
+        <v>0.1639618482402905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>466.172821</v>
       </c>
       <c r="I9">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J9">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>37909.89170986434</v>
+        <v>25928.22178112423</v>
       </c>
       <c r="R9">
-        <v>341189.0253887791</v>
+        <v>233353.9960301181</v>
       </c>
       <c r="S9">
-        <v>0.1671488456924694</v>
+        <v>0.2959350511979993</v>
       </c>
       <c r="T9">
-        <v>0.1671488456924694</v>
+        <v>0.2959350511979993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>466.172821</v>
       </c>
       <c r="I10">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J10">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>10171.69293436504</v>
+        <v>6386.436497746357</v>
       </c>
       <c r="R10">
-        <v>91545.23640928531</v>
+        <v>57477.92847971722</v>
       </c>
       <c r="S10">
-        <v>0.04484810312119582</v>
+        <v>0.07289240380183881</v>
       </c>
       <c r="T10">
-        <v>0.04484810312119582</v>
+        <v>0.07289240380183883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>466.172821</v>
       </c>
       <c r="I11">
-        <v>0.4835679978836785</v>
+        <v>0.765548861900355</v>
       </c>
       <c r="J11">
-        <v>0.4835679978836785</v>
+        <v>0.7655488619003551</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>43755.55742765166</v>
+        <v>17407.57846198385</v>
       </c>
       <c r="R11">
-        <v>393800.0168488649</v>
+        <v>156668.2061578547</v>
       </c>
       <c r="S11">
-        <v>0.1929230231686331</v>
+        <v>0.1986836068769933</v>
       </c>
       <c r="T11">
-        <v>0.1929230231686331</v>
+        <v>0.1986836068769933</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H12">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J12">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>134.2689181462282</v>
+        <v>228.5108331328703</v>
       </c>
       <c r="R12">
-        <v>1208.420263316054</v>
+        <v>2056.597498195832</v>
       </c>
       <c r="S12">
-        <v>0.0005920062988383307</v>
+        <v>0.002608137406156563</v>
       </c>
       <c r="T12">
-        <v>0.0005920062988383308</v>
+        <v>0.002608137406156563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H13">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J13">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>555.5111719221937</v>
+        <v>1099.516127435933</v>
       </c>
       <c r="R13">
-        <v>4999.600547299743</v>
+        <v>9895.645146923393</v>
       </c>
       <c r="S13">
-        <v>0.002449309321870334</v>
+        <v>0.01254946691726694</v>
       </c>
       <c r="T13">
-        <v>0.002449309321870334</v>
+        <v>0.01254946691726694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H14">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I14">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J14">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>1465.97380563828</v>
+        <v>1984.518746025097</v>
       </c>
       <c r="R14">
-        <v>13193.76425074452</v>
+        <v>17860.66871422588</v>
       </c>
       <c r="S14">
-        <v>0.006463638337539103</v>
+        <v>0.02265055666624517</v>
       </c>
       <c r="T14">
-        <v>0.006463638337539104</v>
+        <v>0.02265055666624517</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H15">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I15">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J15">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>393.3389078211237</v>
+        <v>488.8111131208853</v>
       </c>
       <c r="R15">
-        <v>3540.050170390113</v>
+        <v>4399.300018087968</v>
       </c>
       <c r="S15">
-        <v>0.00173427412854176</v>
+        <v>0.005579107700046371</v>
       </c>
       <c r="T15">
-        <v>0.00173427412854176</v>
+        <v>0.005579107700046371</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.008960666666666</v>
+        <v>11.89345866666667</v>
       </c>
       <c r="H16">
-        <v>18.026882</v>
+        <v>35.680376</v>
       </c>
       <c r="I16">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="J16">
-        <v>0.0186995527069248</v>
+        <v>0.05859430238850571</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>1692.025435761086</v>
+        <v>1332.357693957206</v>
       </c>
       <c r="R16">
-        <v>15228.22892184978</v>
+        <v>11991.21924561486</v>
       </c>
       <c r="S16">
-        <v>0.007460324620135276</v>
+        <v>0.01520703369879066</v>
       </c>
       <c r="T16">
-        <v>0.007460324620135276</v>
+        <v>0.01520703369879066</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H17">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I17">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J17">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>399.8314051540465</v>
+        <v>455.1819685035192</v>
       </c>
       <c r="R17">
-        <v>3598.482646386419</v>
+        <v>4096.637716531673</v>
       </c>
       <c r="S17">
-        <v>0.001762900257130175</v>
+        <v>0.005195277188332288</v>
       </c>
       <c r="T17">
-        <v>0.001762900257130175</v>
+        <v>0.005195277188332288</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H18">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I18">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J18">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>1654.22359481982</v>
+        <v>2190.18025721627</v>
       </c>
       <c r="R18">
-        <v>14888.01235337838</v>
+        <v>19711.62231494643</v>
       </c>
       <c r="S18">
-        <v>0.007293652182061842</v>
+        <v>0.02499790043542434</v>
       </c>
       <c r="T18">
-        <v>0.007293652182061843</v>
+        <v>0.02499790043542435</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H19">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I19">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J19">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>4365.43598265258</v>
+        <v>3953.060504674608</v>
       </c>
       <c r="R19">
-        <v>39288.92384387322</v>
+        <v>35577.54454207148</v>
       </c>
       <c r="S19">
-        <v>0.01924768319121534</v>
+        <v>0.04511875795860866</v>
       </c>
       <c r="T19">
-        <v>0.01924768319121534</v>
+        <v>0.04511875795860867</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H20">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I20">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J20">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>1171.300479568925</v>
+        <v>973.6868998564586</v>
       </c>
       <c r="R20">
-        <v>10541.70431612033</v>
+        <v>8763.182098708128</v>
       </c>
       <c r="S20">
-        <v>0.0051643915160021</v>
+        <v>0.01111329905275704</v>
       </c>
       <c r="T20">
-        <v>0.0051643915160021</v>
+        <v>0.01111329905275704</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.89372566666666</v>
+        <v>23.69116533333333</v>
       </c>
       <c r="H21">
-        <v>53.681177</v>
+        <v>71.07349600000001</v>
       </c>
       <c r="I21">
-        <v>0.05568428298810961</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="J21">
-        <v>0.05568428298810962</v>
+        <v>0.1167168730630039</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>5038.581652977648</v>
+        <v>2653.988826576175</v>
       </c>
       <c r="R21">
-        <v>45347.23487679883</v>
+        <v>23885.89943918558</v>
       </c>
       <c r="S21">
-        <v>0.02221565584170016</v>
+        <v>0.03029163842788157</v>
       </c>
       <c r="T21">
-        <v>0.02221565584170017</v>
+        <v>0.03029163842788157</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H22">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I22">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J22">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>2975.676367561906</v>
+        <v>12.070739806026</v>
       </c>
       <c r="R22">
-        <v>26781.08730805716</v>
+        <v>108.636658254234</v>
       </c>
       <c r="S22">
-        <v>0.01312008152908841</v>
+        <v>0.0001377709213014587</v>
       </c>
       <c r="T22">
-        <v>0.01312008152908841</v>
+        <v>0.0001377709213014587</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H23">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I23">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J23">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>12311.27418785959</v>
+        <v>58.080279629856</v>
       </c>
       <c r="R23">
-        <v>110801.4676907363</v>
+        <v>522.722516668704</v>
       </c>
       <c r="S23">
-        <v>0.05428175013670035</v>
+        <v>0.0006629066455443707</v>
       </c>
       <c r="T23">
-        <v>0.05428175013670035</v>
+        <v>0.0006629066455443707</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H24">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I24">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J24">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>32489.00541636756</v>
+        <v>104.82920697909</v>
       </c>
       <c r="R24">
-        <v>292401.0487473081</v>
+        <v>943.4628628118098</v>
       </c>
       <c r="S24">
-        <v>0.1432475670097781</v>
+        <v>0.001196481463182607</v>
       </c>
       <c r="T24">
-        <v>0.1432475670097781</v>
+        <v>0.001196481463182607</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H25">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I25">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J25">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>8717.202079272198</v>
+        <v>25.82070915362399</v>
       </c>
       <c r="R25">
-        <v>78454.81871344977</v>
+        <v>232.3863823826159</v>
       </c>
       <c r="S25">
-        <v>0.03843509436454563</v>
+        <v>0.0002947079421740061</v>
       </c>
       <c r="T25">
-        <v>0.03843509436454563</v>
+        <v>0.0002947079421740062</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>133.1709713333333</v>
+        <v>0.628254</v>
       </c>
       <c r="H26">
-        <v>399.512914</v>
+        <v>1.884762</v>
       </c>
       <c r="I26">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="J26">
-        <v>0.4144206853098676</v>
+        <v>0.003095155571184698</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>37498.77612795332</v>
+        <v>70.379783889558</v>
       </c>
       <c r="R26">
-        <v>337488.9851515799</v>
+        <v>633.418055006022</v>
       </c>
       <c r="S26">
-        <v>0.1653361922697551</v>
+        <v>0.0008032885989822551</v>
       </c>
       <c r="T26">
-        <v>0.1653361922697551</v>
+        <v>0.0008032885989822552</v>
       </c>
     </row>
   </sheetData>
